--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BH-VNET02\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\2. Báo cáo-Bàn giao\2. bộ phận bảo hành\Năm 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1197,6 +1197,144 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1242,6 +1380,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1251,202 +1416,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1805,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76:D77"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1825,112 +1825,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="37" t="s">
+      <c r="A1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="43" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="91"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="43" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="46" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="94"/>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
       <c r="E9" s="19"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -1938,42 +1938,42 @@
       <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="114" t="s">
+      <c r="E10" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="114" t="s">
+      <c r="F10" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="115" t="s">
+      <c r="G10" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="114" t="s">
+      <c r="H10" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="I10" s="114" t="s">
+      <c r="I10" s="76" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="76">
-        <v>1</v>
-      </c>
-      <c r="B11" s="106" t="s">
+      <c r="A11" s="46">
+        <v>1</v>
+      </c>
+      <c r="B11" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="46" t="s">
         <v>141</v>
       </c>
       <c r="D11" s="33" t="s">
@@ -1985,16 +1985,16 @@
       <c r="F11" s="20">
         <v>1</v>
       </c>
-      <c r="G11" s="107">
+      <c r="G11" s="69">
         <v>10000</v>
       </c>
-      <c r="H11" s="108"/>
-      <c r="I11" s="109" t="s">
+      <c r="H11" s="70"/>
+      <c r="I11" s="71" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="76">
+      <c r="A12" s="46">
         <v>2</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -2003,25 +2003,25 @@
       <c r="C12" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="65">
-        <v>1</v>
-      </c>
-      <c r="G12" s="66">
+      <c r="F12" s="35">
+        <v>1</v>
+      </c>
+      <c r="G12" s="36">
         <v>25000</v>
       </c>
-      <c r="H12" s="67"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="76">
+      <c r="A13" s="46">
         <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -2030,7 +2030,7 @@
       <c r="C13" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="34" t="s">
         <v>134</v>
       </c>
       <c r="E13" s="33" t="s">
@@ -2039,22 +2039,22 @@
       <c r="F13" s="20">
         <v>1</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="36">
         <v>30000</v>
       </c>
-      <c r="H13" s="67"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="76">
+      <c r="A14" s="46">
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="38" t="s">
         <v>144</v>
       </c>
       <c r="D14" s="33" t="s">
@@ -2063,23 +2063,23 @@
       <c r="E14" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="65">
-        <v>1</v>
-      </c>
-      <c r="G14" s="66">
+      <c r="F14" s="35">
+        <v>1</v>
+      </c>
+      <c r="G14" s="36">
         <v>300000</v>
       </c>
-      <c r="H14" s="67"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="76">
+      <c r="A15" s="46">
         <v>5</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="40" t="s">
         <v>146</v>
       </c>
       <c r="D15" s="33" t="s">
@@ -2091,20 +2091,20 @@
       <c r="F15" s="20">
         <v>1</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="36">
         <v>7000</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="76">
+      <c r="A16" s="46">
         <v>6</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="40" t="s">
         <v>147</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -2113,23 +2113,23 @@
       <c r="E16" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="65">
-        <v>1</v>
-      </c>
-      <c r="G16" s="66">
+      <c r="F16" s="35">
+        <v>1</v>
+      </c>
+      <c r="G16" s="36">
         <v>70000</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="76">
+      <c r="A17" s="46">
         <v>7</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="40" t="s">
         <v>148</v>
       </c>
       <c r="D17" s="33" t="s">
@@ -2141,20 +2141,20 @@
       <c r="F17" s="20">
         <v>1</v>
       </c>
-      <c r="G17" s="66">
+      <c r="G17" s="36">
         <v>50000</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="76">
+      <c r="A18" s="46">
         <v>8</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D18" s="33" t="s">
@@ -2166,18 +2166,18 @@
       <c r="F18" s="20">
         <v>1</v>
       </c>
-      <c r="G18" s="66"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="15"/>
       <c r="I18" s="28"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="76">
+      <c r="A19" s="46">
         <v>9</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="38" t="s">
         <v>178</v>
       </c>
       <c r="D19" s="33" t="s">
@@ -2186,10 +2186,10 @@
       <c r="E19" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="65">
-        <v>1</v>
-      </c>
-      <c r="G19" s="66">
+      <c r="F19" s="35">
+        <v>1</v>
+      </c>
+      <c r="G19" s="36">
         <v>360000</v>
       </c>
       <c r="H19" s="16" t="s">
@@ -2198,13 +2198,13 @@
       <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="76">
+      <c r="A20" s="46">
         <v>10</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="38" t="s">
         <v>179</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -2216,7 +2216,7 @@
       <c r="F20" s="20">
         <v>1</v>
       </c>
-      <c r="G20" s="66">
+      <c r="G20" s="36">
         <v>220000</v>
       </c>
       <c r="H20" s="16" t="s">
@@ -2225,13 +2225,13 @@
       <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="76">
+      <c r="A21" s="46">
         <v>11</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="38" t="s">
         <v>180</v>
       </c>
       <c r="D21" s="33" t="s">
@@ -2240,10 +2240,10 @@
       <c r="E21" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="65">
-        <v>1</v>
-      </c>
-      <c r="G21" s="66">
+      <c r="F21" s="35">
+        <v>1</v>
+      </c>
+      <c r="G21" s="36">
         <v>310000</v>
       </c>
       <c r="H21" s="16" t="s">
@@ -2254,13 +2254,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="76">
+      <c r="A22" s="46">
         <v>12</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="38" t="s">
         <v>181</v>
       </c>
       <c r="D22" s="33" t="s">
@@ -2272,7 +2272,7 @@
       <c r="F22" s="20">
         <v>1</v>
       </c>
-      <c r="G22" s="66">
+      <c r="G22" s="36">
         <v>310000</v>
       </c>
       <c r="H22" s="16" t="s">
@@ -2281,13 +2281,13 @@
       <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="76">
+      <c r="A23" s="46">
         <v>13</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="40" t="s">
         <v>149</v>
       </c>
       <c r="D23" s="33" t="s">
@@ -2296,21 +2296,21 @@
       <c r="E23" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="65">
-        <v>1</v>
-      </c>
-      <c r="G23" s="66"/>
+      <c r="F23" s="35">
+        <v>1</v>
+      </c>
+      <c r="G23" s="36"/>
       <c r="H23" s="16"/>
       <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="76">
+      <c r="A24" s="46">
         <v>14</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="40" t="s">
         <v>150</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -2319,10 +2319,10 @@
       <c r="E24" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="65">
-        <v>1</v>
-      </c>
-      <c r="G24" s="66">
+      <c r="F24" s="35">
+        <v>1</v>
+      </c>
+      <c r="G24" s="36">
         <v>150000</v>
       </c>
       <c r="H24" s="16" t="s">
@@ -2331,13 +2331,13 @@
       <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="76">
+      <c r="A25" s="46">
         <v>15</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="40" t="s">
         <v>151</v>
       </c>
       <c r="D25" s="33" t="s">
@@ -2349,7 +2349,7 @@
       <c r="F25" s="20">
         <v>1</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G25" s="36">
         <v>190000</v>
       </c>
       <c r="H25" s="16" t="s">
@@ -2358,13 +2358,13 @@
       <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="76">
+      <c r="A26" s="46">
         <v>16</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="40" t="s">
         <v>152</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -2373,23 +2373,23 @@
       <c r="E26" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="65">
-        <v>1</v>
-      </c>
-      <c r="G26" s="66">
+      <c r="F26" s="35">
+        <v>1</v>
+      </c>
+      <c r="G26" s="36">
         <v>200000</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="76">
+      <c r="A27" s="46">
         <v>17</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="40" t="s">
         <v>153</v>
       </c>
       <c r="D27" s="33" t="s">
@@ -2401,20 +2401,20 @@
       <c r="F27" s="20">
         <v>1</v>
       </c>
-      <c r="G27" s="66">
+      <c r="G27" s="36">
         <v>30000</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="76">
+      <c r="A28" s="46">
         <v>18</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="40" t="s">
         <v>154</v>
       </c>
       <c r="D28" s="33" t="s">
@@ -2423,23 +2423,23 @@
       <c r="E28" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="65">
-        <v>1</v>
-      </c>
-      <c r="G28" s="66">
+      <c r="F28" s="35">
+        <v>1</v>
+      </c>
+      <c r="G28" s="36">
         <v>30000</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="76">
+      <c r="A29" s="46">
         <v>19</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="40" t="s">
         <v>155</v>
       </c>
       <c r="D29" s="33" t="s">
@@ -2451,20 +2451,20 @@
       <c r="F29" s="20">
         <v>1</v>
       </c>
-      <c r="G29" s="66">
+      <c r="G29" s="36">
         <v>30000</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="76">
+      <c r="A30" s="46">
         <v>20</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="40" t="s">
         <v>156</v>
       </c>
       <c r="D30" s="33" t="s">
@@ -2473,26 +2473,26 @@
       <c r="E30" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="65">
-        <v>1</v>
-      </c>
-      <c r="G30" s="66">
+      <c r="F30" s="35">
+        <v>1</v>
+      </c>
+      <c r="G30" s="36">
         <v>10000</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="76">
+      <c r="A31" s="46">
         <v>21</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="33" t="s">
@@ -2501,48 +2501,48 @@
       <c r="F31" s="20">
         <v>1</v>
       </c>
-      <c r="G31" s="66">
+      <c r="G31" s="36">
         <v>110000</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="76">
+      <c r="A32" s="46">
         <v>22</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="43" t="s">
         <v>101</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F32" s="65">
-        <v>1</v>
-      </c>
-      <c r="G32" s="66">
+      <c r="F32" s="35">
+        <v>1</v>
+      </c>
+      <c r="G32" s="36">
         <v>110000</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="76">
+      <c r="A33" s="46">
         <v>23</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="43" t="s">
         <v>109</v>
       </c>
       <c r="E33" s="33" t="s">
@@ -2551,48 +2551,48 @@
       <c r="F33" s="20">
         <v>1</v>
       </c>
-      <c r="G33" s="66">
+      <c r="G33" s="36">
         <v>120000</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="76">
+      <c r="A34" s="46">
         <v>24</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="43" t="s">
         <v>107</v>
       </c>
       <c r="E34" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="65">
-        <v>1</v>
-      </c>
-      <c r="G34" s="66">
+      <c r="F34" s="35">
+        <v>1</v>
+      </c>
+      <c r="G34" s="36">
         <v>120000</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="76">
+      <c r="A35" s="46">
         <v>25</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="46" t="s">
         <v>31</v>
       </c>
       <c r="E35" s="33" t="s">
@@ -2601,45 +2601,45 @@
       <c r="F35" s="20">
         <v>1</v>
       </c>
-      <c r="G35" s="66">
+      <c r="G35" s="36">
         <v>40000</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="76">
+      <c r="A36" s="46">
         <v>26</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="46" t="s">
         <v>32</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="65">
-        <v>1</v>
-      </c>
-      <c r="G36" s="78">
+      <c r="F36" s="35">
+        <v>1</v>
+      </c>
+      <c r="G36" s="48">
         <v>30000</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="76">
+      <c r="A37" s="46">
         <v>27</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="38" t="s">
         <v>162</v>
       </c>
       <c r="D37" s="33" t="s">
@@ -2651,20 +2651,20 @@
       <c r="F37" s="20">
         <v>1</v>
       </c>
-      <c r="G37" s="66">
+      <c r="G37" s="36">
         <v>5000</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="76">
+      <c r="A38" s="46">
         <v>28</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="38" t="s">
         <v>162</v>
       </c>
       <c r="D38" s="33" t="s">
@@ -2673,23 +2673,23 @@
       <c r="E38" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="65">
-        <v>1</v>
-      </c>
-      <c r="G38" s="66">
+      <c r="F38" s="35">
+        <v>1</v>
+      </c>
+      <c r="G38" s="36">
         <v>5000</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="76">
+      <c r="A39" s="46">
         <v>29</v>
       </c>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="38" t="s">
         <v>162</v>
       </c>
       <c r="D39" s="33" t="s">
@@ -2701,20 +2701,20 @@
       <c r="F39" s="20">
         <v>1</v>
       </c>
-      <c r="G39" s="66">
+      <c r="G39" s="36">
         <v>5000</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="76">
+      <c r="A40" s="46">
         <v>30</v>
       </c>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="38" t="s">
         <v>162</v>
       </c>
       <c r="D40" s="33" t="s">
@@ -2723,23 +2723,23 @@
       <c r="E40" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F40" s="65">
-        <v>1</v>
-      </c>
-      <c r="G40" s="66">
+      <c r="F40" s="35">
+        <v>1</v>
+      </c>
+      <c r="G40" s="36">
         <v>5000</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="76">
+      <c r="A41" s="46">
         <v>31</v>
       </c>
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="40" t="s">
         <v>163</v>
       </c>
       <c r="D41" s="33" t="s">
@@ -2751,20 +2751,20 @@
       <c r="F41" s="20">
         <v>1</v>
       </c>
-      <c r="G41" s="66">
+      <c r="G41" s="36">
         <v>10000</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="76">
+      <c r="A42" s="46">
         <v>32</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="38" t="s">
         <v>164</v>
       </c>
       <c r="D42" s="33" t="s">
@@ -2773,23 +2773,23 @@
       <c r="E42" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="65">
-        <v>1</v>
-      </c>
-      <c r="G42" s="66">
+      <c r="F42" s="35">
+        <v>1</v>
+      </c>
+      <c r="G42" s="36">
         <v>10000</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="76">
+      <c r="A43" s="46">
         <v>33</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="40" t="s">
         <v>166</v>
       </c>
       <c r="D43" s="33" t="s">
@@ -2801,20 +2801,20 @@
       <c r="F43" s="20">
         <v>1</v>
       </c>
-      <c r="G43" s="66">
+      <c r="G43" s="36">
         <v>5000</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="76">
+      <c r="A44" s="46">
         <v>34</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="40" t="s">
         <v>166</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -2823,23 +2823,23 @@
       <c r="E44" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="65">
-        <v>1</v>
-      </c>
-      <c r="G44" s="66">
+      <c r="F44" s="35">
+        <v>1</v>
+      </c>
+      <c r="G44" s="36">
         <v>25000</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="76">
+      <c r="A45" s="46">
         <v>35</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="70" t="s">
+      <c r="C45" s="40" t="s">
         <v>166</v>
       </c>
       <c r="D45" s="33" t="s">
@@ -2851,20 +2851,20 @@
       <c r="F45" s="20">
         <v>1</v>
       </c>
-      <c r="G45" s="66">
+      <c r="G45" s="36">
         <v>25000</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="76">
+      <c r="A46" s="46">
         <v>36</v>
       </c>
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="40" t="s">
         <v>166</v>
       </c>
       <c r="D46" s="33" t="s">
@@ -2873,23 +2873,23 @@
       <c r="E46" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="65">
-        <v>1</v>
-      </c>
-      <c r="G46" s="66">
+      <c r="F46" s="35">
+        <v>1</v>
+      </c>
+      <c r="G46" s="36">
         <v>25000</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="76">
+      <c r="A47" s="46">
         <v>37</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="40" t="s">
         <v>166</v>
       </c>
       <c r="D47" s="33" t="s">
@@ -2901,48 +2901,48 @@
       <c r="F47" s="20">
         <v>1</v>
       </c>
-      <c r="G47" s="66">
+      <c r="G47" s="36">
         <v>25000</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="76">
+      <c r="A48" s="46">
         <v>38</v>
       </c>
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="70" t="s">
+      <c r="C48" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="40" t="s">
         <v>76</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="65">
-        <v>1</v>
-      </c>
-      <c r="G48" s="66">
+      <c r="F48" s="35">
+        <v>1</v>
+      </c>
+      <c r="G48" s="36">
         <v>10000</v>
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="76">
+      <c r="A49" s="46">
         <v>39</v>
       </c>
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="70" t="s">
+      <c r="D49" s="40" t="s">
         <v>77</v>
       </c>
       <c r="E49" s="33" t="s">
@@ -2951,20 +2951,20 @@
       <c r="F49" s="20">
         <v>1</v>
       </c>
-      <c r="G49" s="66">
+      <c r="G49" s="36">
         <v>10000</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="76">
+      <c r="A50" s="46">
         <v>40</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="68" t="s">
+      <c r="C50" s="38" t="s">
         <v>177</v>
       </c>
       <c r="D50" s="33" t="s">
@@ -2973,23 +2973,23 @@
       <c r="E50" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F50" s="65">
-        <v>1</v>
-      </c>
-      <c r="G50" s="66">
+      <c r="F50" s="35">
+        <v>1</v>
+      </c>
+      <c r="G50" s="36">
         <v>5000</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="76">
+      <c r="A51" s="46">
         <v>41</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="68" t="s">
+      <c r="C51" s="38" t="s">
         <v>127</v>
       </c>
       <c r="D51" s="33" t="s">
@@ -3001,20 +3001,20 @@
       <c r="F51" s="20">
         <v>1</v>
       </c>
-      <c r="G51" s="66">
+      <c r="G51" s="36">
         <v>5000</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="76">
+      <c r="A52" s="46">
         <v>42</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="68" t="s">
+      <c r="C52" s="38" t="s">
         <v>127</v>
       </c>
       <c r="D52" s="33" t="s">
@@ -3023,23 +3023,23 @@
       <c r="E52" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="65">
-        <v>1</v>
-      </c>
-      <c r="G52" s="66">
+      <c r="F52" s="35">
+        <v>1</v>
+      </c>
+      <c r="G52" s="36">
         <v>5000</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="76">
+      <c r="A53" s="46">
         <v>43</v>
       </c>
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="68" t="s">
+      <c r="C53" s="38" t="s">
         <v>127</v>
       </c>
       <c r="D53" s="33" t="s">
@@ -3051,45 +3051,45 @@
       <c r="F53" s="20">
         <v>1</v>
       </c>
-      <c r="G53" s="66">
+      <c r="G53" s="36">
         <v>5000</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="76">
+      <c r="A54" s="46">
         <v>44</v>
       </c>
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="72" t="s">
+      <c r="C54" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="72" t="s">
+      <c r="D54" s="42" t="s">
         <v>128</v>
       </c>
       <c r="E54" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F54" s="65">
-        <v>1</v>
-      </c>
-      <c r="G54" s="66">
+      <c r="F54" s="35">
+        <v>1</v>
+      </c>
+      <c r="G54" s="36">
         <v>5000</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="76">
+      <c r="A55" s="46">
         <v>45</v>
       </c>
-      <c r="B55" s="79" t="s">
+      <c r="B55" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="68" t="s">
+      <c r="C55" s="38" t="s">
         <v>167</v>
       </c>
       <c r="D55" s="33" t="s">
@@ -3101,20 +3101,20 @@
       <c r="F55" s="20">
         <v>1</v>
       </c>
-      <c r="G55" s="66">
+      <c r="G55" s="36">
         <v>25000</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="76">
+      <c r="A56" s="46">
         <v>46</v>
       </c>
-      <c r="B56" s="80" t="s">
+      <c r="B56" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="68" t="s">
+      <c r="C56" s="38" t="s">
         <v>167</v>
       </c>
       <c r="D56" s="33" t="s">
@@ -3123,23 +3123,23 @@
       <c r="E56" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F56" s="65">
-        <v>1</v>
-      </c>
-      <c r="G56" s="66">
+      <c r="F56" s="35">
+        <v>1</v>
+      </c>
+      <c r="G56" s="36">
         <v>25000</v>
       </c>
       <c r="H56" s="15"/>
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="76">
+      <c r="A57" s="46">
         <v>47</v>
       </c>
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="68" t="s">
+      <c r="C57" s="38" t="s">
         <v>167</v>
       </c>
       <c r="D57" s="33" t="s">
@@ -3151,48 +3151,48 @@
       <c r="F57" s="20">
         <v>1</v>
       </c>
-      <c r="G57" s="66">
+      <c r="G57" s="36">
         <v>25000</v>
       </c>
       <c r="H57" s="15"/>
       <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="76">
+      <c r="A58" s="46">
         <v>48</v>
       </c>
-      <c r="B58" s="74" t="s">
+      <c r="B58" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="82" t="s">
+      <c r="C58" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="D58" s="73" t="s">
+      <c r="D58" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E58" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F58" s="65">
-        <v>1</v>
-      </c>
-      <c r="G58" s="66">
+      <c r="F58" s="35">
+        <v>1</v>
+      </c>
+      <c r="G58" s="36">
         <v>30000</v>
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="76">
+      <c r="A59" s="46">
         <v>49</v>
       </c>
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="82" t="s">
+      <c r="C59" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="D59" s="73" t="s">
+      <c r="D59" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E59" s="33" t="s">
@@ -3201,20 +3201,20 @@
       <c r="F59" s="20">
         <v>1</v>
       </c>
-      <c r="G59" s="66">
+      <c r="G59" s="36">
         <v>30000</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="76">
+      <c r="A60" s="46">
         <v>50</v>
       </c>
-      <c r="B60" s="69" t="s">
+      <c r="B60" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="82" t="s">
+      <c r="C60" s="52" t="s">
         <v>168</v>
       </c>
       <c r="D60" s="33" t="s">
@@ -3223,23 +3223,23 @@
       <c r="E60" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F60" s="70">
-        <v>1</v>
-      </c>
-      <c r="G60" s="66">
+      <c r="F60" s="40">
+        <v>1</v>
+      </c>
+      <c r="G60" s="36">
         <v>20000</v>
       </c>
       <c r="H60" s="15"/>
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="76">
+      <c r="A61" s="46">
         <v>51</v>
       </c>
-      <c r="B61" s="69" t="s">
+      <c r="B61" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="40" t="s">
         <v>169</v>
       </c>
       <c r="D61" s="33" t="s">
@@ -3248,23 +3248,23 @@
       <c r="E61" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F61" s="70">
-        <v>1</v>
-      </c>
-      <c r="G61" s="66">
+      <c r="F61" s="40">
+        <v>1</v>
+      </c>
+      <c r="G61" s="36">
         <v>50000</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="76">
+      <c r="A62" s="46">
         <v>52</v>
       </c>
-      <c r="B62" s="80" t="s">
+      <c r="B62" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="68" t="s">
+      <c r="C62" s="38" t="s">
         <v>170</v>
       </c>
       <c r="D62" s="33" t="s">
@@ -3273,10 +3273,10 @@
       <c r="E62" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F62" s="70">
-        <v>1</v>
-      </c>
-      <c r="G62" s="66">
+      <c r="F62" s="40">
+        <v>1</v>
+      </c>
+      <c r="G62" s="36">
         <v>35000</v>
       </c>
       <c r="H62" s="15"/>
@@ -3285,13 +3285,13 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="76">
+      <c r="A63" s="46">
         <v>53</v>
       </c>
-      <c r="B63" s="83" t="s">
+      <c r="B63" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="68" t="s">
+      <c r="C63" s="38" t="s">
         <v>170</v>
       </c>
       <c r="D63" s="33" t="s">
@@ -3300,10 +3300,10 @@
       <c r="E63" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F63" s="70">
-        <v>1</v>
-      </c>
-      <c r="G63" s="66">
+      <c r="F63" s="40">
+        <v>1</v>
+      </c>
+      <c r="G63" s="36">
         <v>35000</v>
       </c>
       <c r="H63" s="15"/>
@@ -3312,13 +3312,13 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="76">
+      <c r="A64" s="46">
         <v>54</v>
       </c>
-      <c r="B64" s="83" t="s">
+      <c r="B64" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="68" t="s">
+      <c r="C64" s="38" t="s">
         <v>170</v>
       </c>
       <c r="D64" s="33" t="s">
@@ -3327,10 +3327,10 @@
       <c r="E64" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F64" s="70">
-        <v>1</v>
-      </c>
-      <c r="G64" s="66">
+      <c r="F64" s="40">
+        <v>1</v>
+      </c>
+      <c r="G64" s="36">
         <v>30000</v>
       </c>
       <c r="H64" s="15"/>
@@ -3339,13 +3339,13 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="76">
+      <c r="A65" s="46">
         <v>55</v>
       </c>
-      <c r="B65" s="83" t="s">
+      <c r="B65" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="68" t="s">
+      <c r="C65" s="38" t="s">
         <v>170</v>
       </c>
       <c r="D65" s="33" t="s">
@@ -3354,23 +3354,23 @@
       <c r="E65" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F65" s="70">
-        <v>1</v>
-      </c>
-      <c r="G65" s="66">
+      <c r="F65" s="40">
+        <v>1</v>
+      </c>
+      <c r="G65" s="36">
         <v>35000</v>
       </c>
       <c r="H65" s="15"/>
       <c r="I65" s="13"/>
     </row>
     <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="76">
+      <c r="A66" s="46">
         <v>56</v>
       </c>
-      <c r="B66" s="69" t="s">
+      <c r="B66" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="40" t="s">
         <v>132</v>
       </c>
       <c r="D66" s="33" t="s">
@@ -3379,23 +3379,23 @@
       <c r="E66" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F66" s="70">
-        <v>1</v>
-      </c>
-      <c r="G66" s="66">
+      <c r="F66" s="40">
+        <v>1</v>
+      </c>
+      <c r="G66" s="36">
         <v>20000</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="13"/>
     </row>
     <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="76">
+      <c r="A67" s="46">
         <v>57</v>
       </c>
-      <c r="B67" s="84" t="s">
+      <c r="B67" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C67" s="40" t="s">
         <v>129</v>
       </c>
       <c r="D67" s="33" t="s">
@@ -3404,23 +3404,23 @@
       <c r="E67" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F67" s="70">
-        <v>1</v>
-      </c>
-      <c r="G67" s="66">
+      <c r="F67" s="40">
+        <v>1</v>
+      </c>
+      <c r="G67" s="36">
         <v>10000</v>
       </c>
       <c r="H67" s="15"/>
       <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="76">
+      <c r="A68" s="46">
         <v>58</v>
       </c>
-      <c r="B68" s="84" t="s">
+      <c r="B68" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="C68" s="70" t="s">
+      <c r="C68" s="40" t="s">
         <v>129</v>
       </c>
       <c r="D68" s="33" t="s">
@@ -3429,23 +3429,23 @@
       <c r="E68" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="70">
-        <v>1</v>
-      </c>
-      <c r="G68" s="66">
+      <c r="F68" s="40">
+        <v>1</v>
+      </c>
+      <c r="G68" s="36">
         <v>10000</v>
       </c>
       <c r="H68" s="15"/>
       <c r="I68" s="13"/>
     </row>
     <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="76">
+      <c r="A69" s="46">
         <v>59</v>
       </c>
-      <c r="B69" s="84" t="s">
+      <c r="B69" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="70" t="s">
+      <c r="C69" s="40" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="33" t="s">
@@ -3454,23 +3454,23 @@
       <c r="E69" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F69" s="70">
-        <v>1</v>
-      </c>
-      <c r="G69" s="66">
+      <c r="F69" s="40">
+        <v>1</v>
+      </c>
+      <c r="G69" s="36">
         <v>10000</v>
       </c>
       <c r="H69" s="15"/>
       <c r="I69" s="13"/>
     </row>
     <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="76">
+      <c r="A70" s="46">
         <v>60</v>
       </c>
-      <c r="B70" s="84" t="s">
+      <c r="B70" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="70" t="s">
+      <c r="C70" s="40" t="s">
         <v>129</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -3479,23 +3479,23 @@
       <c r="E70" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F70" s="70">
-        <v>1</v>
-      </c>
-      <c r="G70" s="66">
+      <c r="F70" s="40">
+        <v>1</v>
+      </c>
+      <c r="G70" s="36">
         <v>10000</v>
       </c>
       <c r="H70" s="15"/>
       <c r="I70" s="13"/>
     </row>
     <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="76">
+      <c r="A71" s="46">
         <v>61</v>
       </c>
-      <c r="B71" s="80" t="s">
+      <c r="B71" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="70" t="s">
+      <c r="C71" s="40" t="s">
         <v>129</v>
       </c>
       <c r="D71" s="33" t="s">
@@ -3504,48 +3504,48 @@
       <c r="E71" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F71" s="70">
-        <v>1</v>
-      </c>
-      <c r="G71" s="66">
+      <c r="F71" s="40">
+        <v>1</v>
+      </c>
+      <c r="G71" s="36">
         <v>10000</v>
       </c>
       <c r="H71" s="15"/>
       <c r="I71" s="13"/>
     </row>
     <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="76">
+      <c r="A72" s="46">
         <v>62</v>
       </c>
-      <c r="B72" s="75" t="s">
+      <c r="B72" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="70" t="s">
+      <c r="C72" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="76" t="s">
+      <c r="D72" s="46" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F72" s="70">
-        <v>1</v>
-      </c>
-      <c r="G72" s="66">
+      <c r="F72" s="40">
+        <v>1</v>
+      </c>
+      <c r="G72" s="36">
         <v>20000</v>
       </c>
       <c r="H72" s="15"/>
       <c r="I72" s="13"/>
     </row>
     <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="76">
+      <c r="A73" s="46">
         <v>63</v>
       </c>
-      <c r="B73" s="85" t="s">
+      <c r="B73" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C73" s="70" t="s">
+      <c r="C73" s="40" t="s">
         <v>129</v>
       </c>
       <c r="D73" s="33" t="s">
@@ -3554,23 +3554,23 @@
       <c r="E73" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F73" s="70">
-        <v>1</v>
-      </c>
-      <c r="G73" s="66">
+      <c r="F73" s="40">
+        <v>1</v>
+      </c>
+      <c r="G73" s="36">
         <v>20000</v>
       </c>
       <c r="H73" s="15"/>
       <c r="I73" s="13"/>
     </row>
     <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="76">
+      <c r="A74" s="46">
         <v>64</v>
       </c>
-      <c r="B74" s="85" t="s">
+      <c r="B74" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="70" t="s">
+      <c r="C74" s="40" t="s">
         <v>129</v>
       </c>
       <c r="D74" s="33" t="s">
@@ -3579,23 +3579,23 @@
       <c r="E74" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F74" s="70">
-        <v>1</v>
-      </c>
-      <c r="G74" s="66">
+      <c r="F74" s="40">
+        <v>1</v>
+      </c>
+      <c r="G74" s="36">
         <v>20000</v>
       </c>
       <c r="H74" s="15"/>
       <c r="I74" s="13"/>
     </row>
     <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="76">
+      <c r="A75" s="46">
         <v>65</v>
       </c>
-      <c r="B75" s="85" t="s">
+      <c r="B75" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C75" s="70" t="s">
+      <c r="C75" s="40" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="33" t="s">
@@ -3604,67 +3604,67 @@
       <c r="E75" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F75" s="70">
-        <v>1</v>
-      </c>
-      <c r="G75" s="86"/>
+      <c r="F75" s="40">
+        <v>1</v>
+      </c>
+      <c r="G75" s="56"/>
       <c r="H75" s="15"/>
       <c r="I75" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="76">
+      <c r="A76" s="46">
         <v>66</v>
       </c>
-      <c r="B76" s="69" t="s">
+      <c r="B76" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="70" t="s">
+      <c r="C76" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="D76" s="87" t="s">
+      <c r="D76" s="112" t="s">
         <v>87</v>
       </c>
       <c r="E76" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F76" s="88">
-        <v>1</v>
-      </c>
-      <c r="G76" s="89">
+      <c r="F76" s="116">
+        <v>1</v>
+      </c>
+      <c r="G76" s="114">
         <v>6000</v>
       </c>
       <c r="H76" s="15"/>
       <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="76">
+      <c r="A77" s="46">
         <v>67</v>
       </c>
-      <c r="B77" s="74" t="s">
+      <c r="B77" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C77" s="90" t="s">
+      <c r="C77" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="D77" s="91"/>
+      <c r="D77" s="113"/>
       <c r="E77" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F77" s="92"/>
-      <c r="G77" s="93"/>
+      <c r="F77" s="117"/>
+      <c r="G77" s="115"/>
       <c r="H77" s="15"/>
       <c r="I77" s="13"/>
     </row>
     <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="76">
+      <c r="A78" s="46">
         <v>68</v>
       </c>
-      <c r="B78" s="80" t="s">
+      <c r="B78" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C78" s="68" t="s">
+      <c r="C78" s="38" t="s">
         <v>172</v>
       </c>
       <c r="D78" s="33" t="s">
@@ -3673,20 +3673,20 @@
       <c r="E78" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F78" s="70">
-        <v>1</v>
-      </c>
-      <c r="G78" s="66">
+      <c r="F78" s="40">
+        <v>1</v>
+      </c>
+      <c r="G78" s="36">
         <v>5000</v>
       </c>
       <c r="H78" s="15"/>
       <c r="I78" s="13"/>
     </row>
     <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="76">
+      <c r="A79" s="46">
         <v>69</v>
       </c>
-      <c r="B79" s="83" t="s">
+      <c r="B79" s="53" t="s">
         <v>90</v>
       </c>
       <c r="C79" s="26" t="s">
@@ -3698,23 +3698,23 @@
       <c r="E79" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F79" s="70">
-        <v>1</v>
-      </c>
-      <c r="G79" s="66">
+      <c r="F79" s="40">
+        <v>1</v>
+      </c>
+      <c r="G79" s="36">
         <v>5000</v>
       </c>
       <c r="H79" s="15"/>
       <c r="I79" s="13"/>
     </row>
     <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="76">
+      <c r="A80" s="46">
         <v>70</v>
       </c>
-      <c r="B80" s="94" t="s">
+      <c r="B80" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="95" t="s">
+      <c r="C80" s="59" t="s">
         <v>171</v>
       </c>
       <c r="D80" s="33" t="s">
@@ -3723,23 +3723,23 @@
       <c r="E80" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F80" s="70">
-        <v>1</v>
-      </c>
-      <c r="G80" s="66">
+      <c r="F80" s="40">
+        <v>1</v>
+      </c>
+      <c r="G80" s="36">
         <v>80000</v>
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="13"/>
     </row>
     <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="76">
+      <c r="A81" s="46">
         <v>71</v>
       </c>
-      <c r="B81" s="79" t="s">
+      <c r="B81" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="72" t="s">
+      <c r="C81" s="42" t="s">
         <v>174</v>
       </c>
       <c r="D81" s="33" t="s">
@@ -3748,23 +3748,23 @@
       <c r="E81" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F81" s="70">
-        <v>1</v>
-      </c>
-      <c r="G81" s="66">
+      <c r="F81" s="40">
+        <v>1</v>
+      </c>
+      <c r="G81" s="36">
         <v>7000</v>
       </c>
       <c r="H81" s="15"/>
       <c r="I81" s="13"/>
     </row>
     <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="76">
+      <c r="A82" s="46">
         <v>72</v>
       </c>
-      <c r="B82" s="80" t="s">
+      <c r="B82" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="72" t="s">
+      <c r="C82" s="42" t="s">
         <v>174</v>
       </c>
       <c r="D82" s="33" t="s">
@@ -3773,23 +3773,23 @@
       <c r="E82" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F82" s="70">
-        <v>1</v>
-      </c>
-      <c r="G82" s="66">
+      <c r="F82" s="40">
+        <v>1</v>
+      </c>
+      <c r="G82" s="36">
         <v>15000</v>
       </c>
       <c r="H82" s="15"/>
       <c r="I82" s="13"/>
     </row>
     <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="76">
+      <c r="A83" s="46">
         <v>73</v>
       </c>
-      <c r="B83" s="80" t="s">
+      <c r="B83" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="72" t="s">
+      <c r="C83" s="42" t="s">
         <v>174</v>
       </c>
       <c r="D83" s="33" t="s">
@@ -3798,23 +3798,23 @@
       <c r="E83" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F83" s="70">
-        <v>1</v>
-      </c>
-      <c r="G83" s="66">
+      <c r="F83" s="40">
+        <v>1</v>
+      </c>
+      <c r="G83" s="36">
         <v>7000</v>
       </c>
       <c r="H83" s="15"/>
       <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="76">
+      <c r="A84" s="46">
         <v>74</v>
       </c>
-      <c r="B84" s="83" t="s">
+      <c r="B84" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="72" t="s">
+      <c r="C84" s="42" t="s">
         <v>174</v>
       </c>
       <c r="D84" s="33" t="s">
@@ -3823,82 +3823,82 @@
       <c r="E84" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F84" s="70">
-        <v>1</v>
-      </c>
-      <c r="G84" s="66">
+      <c r="F84" s="40">
+        <v>1</v>
+      </c>
+      <c r="G84" s="36">
         <v>15000</v>
       </c>
       <c r="H84" s="15"/>
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="76">
+      <c r="A85" s="46">
         <v>75</v>
       </c>
-      <c r="B85" s="110" t="s">
+      <c r="B85" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="C85" s="110"/>
-      <c r="D85" s="76"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="46"/>
       <c r="E85" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F85" s="70">
-        <v>1</v>
-      </c>
-      <c r="G85" s="76"/>
-      <c r="H85" s="78"/>
-      <c r="I85" s="111"/>
+      <c r="F85" s="40">
+        <v>1</v>
+      </c>
+      <c r="G85" s="46"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="73"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="76">
+      <c r="A86" s="46">
         <v>76</v>
       </c>
-      <c r="B86" s="75" t="s">
+      <c r="B86" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="C86" s="76"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="96"/>
-      <c r="G86" s="96"/>
-      <c r="H86" s="96"/>
-      <c r="I86" s="96"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="110"/>
+      <c r="G86" s="110"/>
+      <c r="H86" s="110"/>
+      <c r="I86" s="110"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="99"/>
-      <c r="B87" s="97"/>
-      <c r="C87" s="97"/>
-      <c r="D87" s="97"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="100"/>
-      <c r="G87" s="100"/>
-      <c r="H87" s="101"/>
-      <c r="I87" s="102"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="107"/>
+      <c r="D87" s="107"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="64"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="99"/>
-      <c r="B88" s="117" t="s">
+      <c r="A88" s="61"/>
+      <c r="B88" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="104"/>
-      <c r="D88" s="104"/>
-      <c r="E88" s="103"/>
-      <c r="F88" s="104"/>
-      <c r="G88" s="104"/>
-      <c r="H88" s="116" t="s">
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="I88" s="105"/>
+      <c r="I88" s="67"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
@@ -3941,9 +3941,9 @@
     </row>
     <row r="92" spans="1:12" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51"/>
+      <c r="B92" s="106"/>
+      <c r="C92" s="106"/>
+      <c r="D92" s="106"/>
       <c r="E92" s="18"/>
       <c r="F92" s="21"/>
       <c r="G92" s="21"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BH-VNET01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\2. Báo cáo-Bàn giao\2. bộ phận bảo hành\Năm 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2338,7 +2338,9 @@
       <c r="F24" s="32">
         <v>1</v>
       </c>
-      <c r="G24" s="36"/>
+      <c r="G24" s="36">
+        <v>150000</v>
+      </c>
       <c r="H24" s="23"/>
       <c r="I24" s="16"/>
     </row>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1815,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1816,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\2. Báo cáo-Bàn giao\2. bộ phận bảo hành\Năm 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\2. Báo cáo-Bàn giao\2. bộ phận bảo hành\Năm 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2179,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="36">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="59"/>
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="36">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>35</v>
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="36">
-        <v>310000</v>
+        <v>350000</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>36</v>
@@ -2312,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="36">
-        <v>310000</v>
+        <v>350000</v>
       </c>
       <c r="H23" s="23" t="s">
         <v>36</v>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="36">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="16"/>
@@ -2364,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="36">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="H25" s="23" t="s">
         <v>191</v>
@@ -2391,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="36">
-        <v>190000</v>
+        <v>250000</v>
       </c>
       <c r="H26" s="23" t="s">
         <v>37</v>
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="36">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="16"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\2. Báo cáo-Bàn giao\2. bộ phận bảo hành\Năm 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\2. Báo cáo-Bàn giao\2. bộ phận bảo hành\Năm 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1816,7 +1816,7 @@
   <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\2. Báo cáo-Bàn giao\2. bộ phận bảo hành\Năm 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\2. Báo cáo-Bàn giao\2. bộ phận bảo hành\Năm 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="194">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -104,9 +104,6 @@
     <t>đế pin</t>
   </si>
   <si>
-    <t xml:space="preserve">Đơn giá </t>
-  </si>
-  <si>
     <t>Cầu chì</t>
   </si>
   <si>
@@ -119,24 +116,9 @@
     <t>Cable</t>
   </si>
   <si>
-    <t>MSP(RTC_M-9129), Mô tả (Thay linh kiện RTC Module - (100k))</t>
-  </si>
-  <si>
     <t>Đơn vị: VNET</t>
   </si>
   <si>
-    <t>250,000(A.Tuan BG)</t>
-  </si>
-  <si>
-    <t>150,000(A.Tuan BG)</t>
-  </si>
-  <si>
-    <t>200,000(A.Tuan BG)</t>
-  </si>
-  <si>
-    <t>120,000(A.Tuan BG)</t>
-  </si>
-  <si>
     <t>VT_IC_TLV73333PDBVR</t>
   </si>
   <si>
@@ -596,9 +578,6 @@
     <t>200,000(TECHGLOBAL)</t>
   </si>
   <si>
-    <t>100,000(A.Tuan BG)(Techglobal)</t>
-  </si>
-  <si>
     <t>Phòng Bảo Hành</t>
   </si>
   <si>
@@ -615,6 +594,15 @@
   </si>
   <si>
     <t>IC Nguồn 4v4</t>
+  </si>
+  <si>
+    <t>Giá mới</t>
+  </si>
+  <si>
+    <t>(A.Tuan BG)</t>
+  </si>
+  <si>
+    <t>(A.Tuan BG)(Techglobal)</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1128,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1179,18 +1167,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,12 +1203,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,9 +1284,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,9 +1327,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1438,12 +1408,6 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1458,6 +1422,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1815,2220 +1782,2241 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="55.5703125" style="78" customWidth="1"/>
-    <col min="3" max="3" width="55.5703125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="43" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="47" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="43" customWidth="1"/>
     <col min="8" max="8" width="54.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="70.7109375" style="64" customWidth="1"/>
+    <col min="9" max="9" width="70.7109375" style="60" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="95" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="100" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="91"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="92" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="94"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="119"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="111"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="104"/>
+      <c r="B7" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="58"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <v>1</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="23">
+        <v>1</v>
+      </c>
+      <c r="G11" s="112">
+        <v>12000</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="92" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>2</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1</v>
+      </c>
+      <c r="G12" s="112">
+        <v>31000</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="93" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="76">
+        <v>1</v>
+      </c>
+      <c r="G13" s="112">
+        <v>31000</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="93"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
+        <v>4</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="23">
+        <v>1</v>
+      </c>
+      <c r="G14" s="112">
+        <v>38000</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>5</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="D15" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="30">
+        <v>1</v>
+      </c>
+      <c r="G15" s="112">
+        <v>375000</v>
+      </c>
+      <c r="H15" s="74">
+        <f>200000*125%</f>
+        <v>250000</v>
+      </c>
+      <c r="I15" s="74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>6</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="23">
+        <v>1</v>
+      </c>
+      <c r="G16" s="112">
+        <v>9000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="55"/>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <v>7</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="30">
+        <v>1</v>
+      </c>
+      <c r="G17" s="112">
+        <v>88000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="55"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>8</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="23">
+        <v>1</v>
+      </c>
+      <c r="G18" s="112">
+        <v>63000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <v>9</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D19" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="23">
+        <v>1</v>
+      </c>
+      <c r="G19" s="112">
+        <v>320000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="55"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
+        <v>10</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="30">
+        <v>1</v>
+      </c>
+      <c r="G20" s="112">
+        <v>450000</v>
+      </c>
+      <c r="H20" s="22">
+        <f>250000*125%</f>
+        <v>312500</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
         <v>11</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
-        <v>1</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="24">
-        <v>1</v>
-      </c>
-      <c r="G11" s="25">
-        <v>10000</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="98" t="s">
+      <c r="B21" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="23">
+        <v>1</v>
+      </c>
+      <c r="G21" s="112">
+        <v>275000</v>
+      </c>
+      <c r="H21" s="22">
+        <f>150000*125%</f>
+        <v>187500</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
+        <v>12</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="30">
+        <v>1</v>
+      </c>
+      <c r="G22" s="112">
+        <v>385000</v>
+      </c>
+      <c r="H22" s="22">
+        <f>200000*125%</f>
+        <v>250000</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
+        <v>13</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
-        <v>2</v>
-      </c>
-      <c r="B12" s="73" t="s">
+      <c r="C23" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="112">
+        <v>385000</v>
+      </c>
+      <c r="H23" s="22">
+        <f>200000*125%</f>
+        <v>250000</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
+        <v>14</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="30">
+        <v>1</v>
+      </c>
+      <c r="G24" s="112">
+        <v>240000</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
+        <v>15</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="32">
-        <v>1</v>
-      </c>
-      <c r="G12" s="36">
-        <v>25000</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="99" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
-        <v>3</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="82">
-        <v>1</v>
-      </c>
-      <c r="G13" s="81">
-        <v>25000</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="99"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
-        <v>4</v>
-      </c>
-      <c r="B14" s="73" t="s">
+      <c r="C25" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="30">
+        <v>1</v>
+      </c>
+      <c r="G25" s="112">
+        <v>240000</v>
+      </c>
+      <c r="H25" s="22">
+        <f>100000*125%</f>
+        <v>125000</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
+        <v>16</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="24">
-        <v>1</v>
-      </c>
-      <c r="G14" s="36">
-        <v>30000</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
-        <v>5</v>
-      </c>
-      <c r="B15" s="51" t="s">
+      <c r="C26" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="23">
+        <v>1</v>
+      </c>
+      <c r="G26" s="112">
+        <v>240000</v>
+      </c>
+      <c r="H26" s="22">
+        <f>120000*125%</f>
+        <v>150000</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
+        <v>17</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="32">
-        <v>1</v>
-      </c>
-      <c r="G15" s="36">
-        <v>300000</v>
-      </c>
-      <c r="H15" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="I15" s="59"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
-        <v>6</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="C27" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="24">
-        <v>1</v>
-      </c>
-      <c r="G16" s="36">
-        <v>7000</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="59"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
-        <v>7</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="32">
-        <v>1</v>
-      </c>
-      <c r="G17" s="36">
-        <v>70000</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="59"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
-        <v>8</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="24">
-        <v>1</v>
-      </c>
-      <c r="G18" s="36">
-        <v>70000</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="59"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
-        <v>9</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="24">
-        <v>1</v>
-      </c>
-      <c r="G19" s="36">
-        <v>250000</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="59"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
-        <v>10</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="32">
-        <v>1</v>
-      </c>
-      <c r="G20" s="36">
-        <v>360000</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="59"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
-        <v>11</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="24">
-        <v>1</v>
-      </c>
-      <c r="G21" s="36">
-        <v>260000</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+      <c r="D27" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="32">
-        <v>1</v>
-      </c>
-      <c r="G22" s="36">
-        <v>350000</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
-        <v>13</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="24">
-        <v>1</v>
-      </c>
-      <c r="G23" s="36">
-        <v>350000</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
-        <v>14</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="32">
-        <v>1</v>
-      </c>
-      <c r="G24" s="36">
-        <v>200000</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
-        <v>15</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="32">
-        <v>1</v>
-      </c>
-      <c r="G25" s="36">
-        <v>200000</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
-        <v>16</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="24">
-        <v>1</v>
-      </c>
-      <c r="G26" s="36">
-        <v>250000</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26">
-        <v>17</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="32">
-        <v>1</v>
-      </c>
-      <c r="G27" s="36">
-        <v>250000</v>
+      <c r="E27" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="30">
+        <v>1</v>
+      </c>
+      <c r="G27" s="112">
+        <v>240000</v>
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26">
+      <c r="A28" s="24">
         <v>18</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="24">
-        <v>1</v>
-      </c>
-      <c r="G28" s="36">
-        <v>30000</v>
+      <c r="E28" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="23">
+        <v>1</v>
+      </c>
+      <c r="G28" s="112">
+        <v>38000</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26">
+      <c r="A29" s="24">
         <v>19</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="32">
-        <v>1</v>
-      </c>
-      <c r="G29" s="36">
-        <v>30000</v>
+      <c r="E29" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="30">
+        <v>1</v>
+      </c>
+      <c r="G29" s="112">
+        <v>38000</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26">
+      <c r="A30" s="24">
         <v>20</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="24">
-        <v>1</v>
-      </c>
-      <c r="G30" s="36">
-        <v>30000</v>
+        <v>147</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="23">
+        <v>1</v>
+      </c>
+      <c r="G30" s="112">
+        <v>38000</v>
       </c>
       <c r="H30" s="20"/>
       <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26">
+      <c r="A31" s="24">
         <v>21</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" s="32">
-        <v>1</v>
-      </c>
-      <c r="G31" s="36">
-        <v>10000</v>
+      <c r="E31" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="30">
+        <v>1</v>
+      </c>
+      <c r="G31" s="112">
+        <v>12000</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
+      <c r="A32" s="24">
         <v>22</v>
       </c>
-      <c r="B32" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="68" t="s">
+      <c r="B32" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="24">
-        <v>1</v>
-      </c>
-      <c r="G32" s="65">
-        <v>110000</v>
+      <c r="E32" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="23">
+        <v>1</v>
+      </c>
+      <c r="G32" s="112">
+        <v>138000</v>
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26">
+      <c r="A33" s="24">
         <v>23</v>
       </c>
-      <c r="B33" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="24">
-        <v>1</v>
-      </c>
-      <c r="G33" s="36">
-        <v>110000</v>
+      <c r="B33" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="23">
+        <v>1</v>
+      </c>
+      <c r="G33" s="112">
+        <v>138000</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
+      <c r="A34" s="24">
         <v>24</v>
       </c>
-      <c r="B34" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F34" s="32">
-        <v>1</v>
-      </c>
-      <c r="G34" s="36">
-        <v>110000</v>
+      <c r="B34" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="30">
+        <v>1</v>
+      </c>
+      <c r="G34" s="112">
+        <v>138000</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
+      <c r="A35" s="24">
         <v>25</v>
       </c>
-      <c r="B35" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F35" s="24">
-        <v>1</v>
-      </c>
-      <c r="G35" s="36">
-        <v>120000</v>
+      <c r="B35" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="23">
+        <v>1</v>
+      </c>
+      <c r="G35" s="112">
+        <v>150000</v>
       </c>
       <c r="H35" s="20"/>
       <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26">
+      <c r="A36" s="24">
         <v>26</v>
       </c>
-      <c r="B36" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" s="32">
-        <v>1</v>
-      </c>
-      <c r="G36" s="36">
-        <v>120000</v>
+      <c r="B36" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="30">
+        <v>1</v>
+      </c>
+      <c r="G36" s="112">
+        <v>150000</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="26">
+      <c r="A37" s="24">
         <v>27</v>
       </c>
-      <c r="B37" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="24">
-        <v>1</v>
-      </c>
-      <c r="G37" s="36">
-        <v>40000</v>
+      <c r="B37" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="23">
+        <v>1</v>
+      </c>
+      <c r="G37" s="112">
+        <v>50000</v>
       </c>
       <c r="H37" s="20"/>
       <c r="I37" s="17"/>
     </row>
     <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26">
+      <c r="A38" s="24">
         <v>28</v>
       </c>
-      <c r="B38" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" s="32">
-        <v>1</v>
-      </c>
-      <c r="G38" s="22">
-        <v>30000</v>
+      <c r="B38" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="30">
+        <v>1</v>
+      </c>
+      <c r="G38" s="112">
+        <v>38000</v>
       </c>
       <c r="H38" s="20"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="26">
+      <c r="A39" s="24">
         <v>29</v>
       </c>
-      <c r="B39" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" s="27" t="s">
+      <c r="B39" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="24">
-        <v>1</v>
-      </c>
-      <c r="G39" s="36">
-        <v>5000</v>
+      <c r="E39" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="23">
+        <v>1</v>
+      </c>
+      <c r="G39" s="112">
+        <v>6000</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="26">
+      <c r="A40" s="24">
         <v>30</v>
       </c>
-      <c r="B40" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="27" t="s">
+      <c r="B40" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" s="32">
-        <v>1</v>
-      </c>
-      <c r="G40" s="36">
-        <v>5000</v>
+      <c r="E40" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="30">
+        <v>1</v>
+      </c>
+      <c r="G40" s="112">
+        <v>6000</v>
       </c>
       <c r="H40" s="20"/>
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="26">
+      <c r="A41" s="24">
         <v>31</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F41" s="24">
-        <v>1</v>
-      </c>
-      <c r="G41" s="36">
-        <v>5000</v>
+      <c r="E41" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="23">
+        <v>1</v>
+      </c>
+      <c r="G41" s="112">
+        <v>6000</v>
       </c>
       <c r="H41" s="20"/>
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="26">
+      <c r="A42" s="24">
         <v>32</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D42" s="27" t="s">
+      <c r="C42" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F42" s="32">
-        <v>1</v>
-      </c>
-      <c r="G42" s="36">
-        <v>5000</v>
+      <c r="E42" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="30">
+        <v>1</v>
+      </c>
+      <c r="G42" s="112">
+        <v>6000</v>
       </c>
       <c r="H42" s="20"/>
       <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="26">
+      <c r="A43" s="24">
         <v>33</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" s="24">
-        <v>1</v>
-      </c>
-      <c r="G43" s="36">
-        <v>10000</v>
+        <v>155</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="23">
+        <v>1</v>
+      </c>
+      <c r="G43" s="112">
+        <v>12000</v>
       </c>
       <c r="H43" s="20"/>
       <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="26">
+      <c r="A44" s="24">
         <v>34</v>
       </c>
-      <c r="B44" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" s="27" t="s">
+      <c r="B44" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F44" s="32">
-        <v>1</v>
-      </c>
-      <c r="G44" s="36">
-        <v>10000</v>
+      <c r="E44" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="30">
+        <v>1</v>
+      </c>
+      <c r="G44" s="112">
+        <v>12000</v>
       </c>
       <c r="H44" s="20"/>
       <c r="I44" s="16"/>
     </row>
     <row r="45" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="26">
+      <c r="A45" s="24">
         <v>35</v>
       </c>
-      <c r="B45" s="51" t="s">
-        <v>60</v>
+      <c r="B45" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" s="24">
-        <v>1</v>
-      </c>
-      <c r="G45" s="36">
-        <v>5000</v>
+        <v>158</v>
+      </c>
+      <c r="D45" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="23">
+        <v>1</v>
+      </c>
+      <c r="G45" s="112">
+        <v>6000</v>
       </c>
       <c r="H45" s="20"/>
       <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="26">
+      <c r="A46" s="24">
         <v>36</v>
       </c>
-      <c r="B46" s="51" t="s">
-        <v>62</v>
+      <c r="B46" s="47" t="s">
+        <v>56</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F46" s="32">
-        <v>1</v>
-      </c>
-      <c r="G46" s="36">
-        <v>25000</v>
+      <c r="E46" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="30">
+        <v>1</v>
+      </c>
+      <c r="G46" s="112">
+        <v>32000</v>
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="26">
+      <c r="A47" s="24">
         <v>37</v>
       </c>
-      <c r="B47" s="51" t="s">
-        <v>63</v>
+      <c r="B47" s="47" t="s">
+        <v>57</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F47" s="24">
-        <v>1</v>
-      </c>
-      <c r="G47" s="36">
-        <v>25000</v>
+      <c r="E47" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="23">
+        <v>1</v>
+      </c>
+      <c r="G47" s="112">
+        <v>32000</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="26">
+      <c r="A48" s="24">
         <v>38</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F48" s="32">
-        <v>1</v>
-      </c>
-      <c r="G48" s="36">
-        <v>25000</v>
+      <c r="E48" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="30">
+        <v>1</v>
+      </c>
+      <c r="G48" s="112">
+        <v>32000</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="16"/>
     </row>
     <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="26">
+      <c r="A49" s="24">
         <v>39</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" s="24">
-        <v>1</v>
-      </c>
-      <c r="G49" s="36">
-        <v>25000</v>
+      <c r="E49" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="23">
+        <v>1</v>
+      </c>
+      <c r="G49" s="112">
+        <v>32000</v>
       </c>
       <c r="H49" s="20"/>
       <c r="I49" s="16"/>
     </row>
     <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="26">
+      <c r="A50" s="24">
         <v>40</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="32">
-        <v>1</v>
-      </c>
-      <c r="G50" s="36">
-        <v>10000</v>
+        <v>67</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="30">
+        <v>1</v>
+      </c>
+      <c r="G50" s="112">
+        <v>12000</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="16"/>
     </row>
     <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="26">
+      <c r="A51" s="24">
         <v>41</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F51" s="24">
-        <v>1</v>
-      </c>
-      <c r="G51" s="36">
-        <v>10000</v>
+        <v>68</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="23">
+        <v>1</v>
+      </c>
+      <c r="G51" s="112">
+        <v>12000</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="16"/>
     </row>
     <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="26">
+      <c r="A52" s="24">
         <v>42</v>
       </c>
-      <c r="B52" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="27" t="s">
+      <c r="B52" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F52" s="32">
-        <v>1</v>
-      </c>
-      <c r="G52" s="36">
-        <v>5000</v>
+      <c r="E52" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" s="30">
+        <v>1</v>
+      </c>
+      <c r="G52" s="112">
+        <v>6000</v>
       </c>
       <c r="H52" s="20"/>
       <c r="I52" s="16"/>
     </row>
     <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="26">
+      <c r="A53" s="24">
         <v>43</v>
       </c>
-      <c r="B53" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F53" s="24">
-        <v>1</v>
-      </c>
-      <c r="G53" s="36">
-        <v>5000</v>
+      <c r="B53" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" s="23">
+        <v>1</v>
+      </c>
+      <c r="G53" s="112">
+        <v>6000</v>
       </c>
       <c r="H53" s="20"/>
       <c r="I53" s="16"/>
     </row>
     <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="26">
+      <c r="A54" s="24">
         <v>44</v>
       </c>
-      <c r="B54" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F54" s="32">
-        <v>1</v>
-      </c>
-      <c r="G54" s="36">
-        <v>5000</v>
+      <c r="B54" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="30">
+        <v>1</v>
+      </c>
+      <c r="G54" s="112">
+        <v>6000</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="16"/>
     </row>
     <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="26">
+      <c r="A55" s="24">
         <v>45</v>
       </c>
-      <c r="B55" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F55" s="24">
-        <v>1</v>
-      </c>
-      <c r="G55" s="36">
-        <v>5000</v>
+      <c r="B55" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" s="23">
+        <v>1</v>
+      </c>
+      <c r="G55" s="112">
+        <v>6000</v>
       </c>
       <c r="H55" s="20"/>
       <c r="I55" s="16"/>
     </row>
     <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="26">
+      <c r="A56" s="24">
         <v>46</v>
       </c>
-      <c r="B56" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F56" s="32">
-        <v>1</v>
-      </c>
-      <c r="G56" s="36">
-        <v>5000</v>
+      <c r="B56" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="30">
+        <v>1</v>
+      </c>
+      <c r="G56" s="112">
+        <v>6000</v>
       </c>
       <c r="H56" s="20"/>
       <c r="I56" s="16"/>
     </row>
     <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
+      <c r="A57" s="24">
         <v>47</v>
       </c>
-      <c r="B57" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F57" s="24">
-        <v>1</v>
-      </c>
-      <c r="G57" s="36">
-        <v>25000</v>
+      <c r="B57" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="23">
+        <v>1</v>
+      </c>
+      <c r="G57" s="112">
+        <v>32000</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="16"/>
     </row>
     <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="26">
+      <c r="A58" s="24">
         <v>48</v>
       </c>
-      <c r="B58" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F58" s="32">
-        <v>1</v>
-      </c>
-      <c r="G58" s="36">
-        <v>25000</v>
+      <c r="B58" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" s="30">
+        <v>1</v>
+      </c>
+      <c r="G58" s="112">
+        <v>32000</v>
       </c>
       <c r="H58" s="20"/>
       <c r="I58" s="16"/>
     </row>
     <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="26">
+      <c r="A59" s="24">
         <v>49</v>
       </c>
-      <c r="B59" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F59" s="24">
-        <v>1</v>
-      </c>
-      <c r="G59" s="36">
-        <v>25000</v>
+      <c r="B59" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="23">
+        <v>1</v>
+      </c>
+      <c r="G59" s="112">
+        <v>32000</v>
       </c>
       <c r="H59" s="20"/>
       <c r="I59" s="16"/>
     </row>
     <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="26">
+      <c r="A60" s="24">
         <v>50</v>
       </c>
-      <c r="B60" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D60" s="57" t="s">
+      <c r="B60" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F60" s="32">
-        <v>1</v>
-      </c>
-      <c r="G60" s="36">
-        <v>30000</v>
+      <c r="E60" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="30">
+        <v>1</v>
+      </c>
+      <c r="G60" s="112">
+        <v>38000</v>
       </c>
       <c r="H60" s="20"/>
       <c r="I60" s="16"/>
     </row>
     <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="26">
+      <c r="A61" s="24">
         <v>51</v>
       </c>
-      <c r="B61" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D61" s="57" t="s">
+      <c r="B61" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F61" s="24">
-        <v>1</v>
-      </c>
-      <c r="G61" s="36">
-        <v>30000</v>
+      <c r="E61" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="23">
+        <v>1</v>
+      </c>
+      <c r="G61" s="112">
+        <v>38000</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="16"/>
     </row>
     <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="26">
+      <c r="A62" s="24">
         <v>52</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D62" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="27" t="s">
-        <v>135</v>
+      <c r="E62" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F62" s="18">
         <v>1</v>
       </c>
-      <c r="G62" s="36">
-        <v>20000</v>
+      <c r="G62" s="112">
+        <v>25000</v>
       </c>
       <c r="H62" s="20"/>
       <c r="I62" s="16"/>
     </row>
     <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="26">
+      <c r="A63" s="24">
         <v>53</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="27" t="s">
-        <v>135</v>
+      <c r="E63" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F63" s="18">
         <v>1</v>
       </c>
-      <c r="G63" s="36">
-        <v>50000</v>
+      <c r="G63" s="112">
+        <v>63000</v>
       </c>
       <c r="H63" s="20"/>
       <c r="I63" s="16"/>
     </row>
     <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="26">
+      <c r="A64" s="24">
         <v>54</v>
       </c>
-      <c r="B64" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>135</v>
+      <c r="B64" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F64" s="18">
         <v>1</v>
       </c>
-      <c r="G64" s="36">
-        <v>35000</v>
+      <c r="G64" s="112">
+        <v>44000</v>
       </c>
       <c r="H64" s="20"/>
       <c r="I64" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="26">
+      <c r="A65" s="24">
         <v>55</v>
       </c>
-      <c r="B65" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>135</v>
+      <c r="B65" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F65" s="18">
         <v>1</v>
       </c>
-      <c r="G65" s="36">
-        <v>35000</v>
+      <c r="G65" s="112">
+        <v>44000</v>
       </c>
       <c r="H65" s="20"/>
       <c r="I65" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="24">
         <v>56</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="26">
-        <v>56</v>
-      </c>
-      <c r="B66" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>135</v>
+      <c r="B66" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F66" s="18">
         <v>1</v>
       </c>
-      <c r="G66" s="36">
-        <v>30000</v>
+      <c r="G66" s="112">
+        <v>38000</v>
       </c>
       <c r="H66" s="20"/>
       <c r="I66" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="26">
+      <c r="A67" s="24">
         <v>57</v>
       </c>
-      <c r="B67" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>135</v>
+      <c r="B67" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F67" s="18">
         <v>1</v>
       </c>
-      <c r="G67" s="36">
-        <v>35000</v>
+      <c r="G67" s="112">
+        <v>44000</v>
       </c>
       <c r="H67" s="20"/>
       <c r="I67" s="16"/>
     </row>
     <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="26">
+      <c r="A68" s="24">
         <v>58</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>135</v>
+        <v>125</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F68" s="18">
         <v>1</v>
       </c>
-      <c r="G68" s="36">
-        <v>20000</v>
+      <c r="G68" s="112">
+        <v>25000</v>
       </c>
       <c r="H68" s="20"/>
       <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="26">
+      <c r="A69" s="24">
         <v>59</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F69" s="18">
         <v>1</v>
       </c>
-      <c r="G69" s="36">
-        <v>10000</v>
+      <c r="G69" s="112">
+        <v>12000</v>
       </c>
       <c r="H69" s="20"/>
       <c r="I69" s="16"/>
     </row>
     <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="26">
+      <c r="A70" s="24">
         <v>60</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F70" s="18">
         <v>1</v>
       </c>
-      <c r="G70" s="36">
-        <v>10000</v>
+      <c r="G70" s="112">
+        <v>12000</v>
       </c>
       <c r="H70" s="20"/>
       <c r="I70" s="16"/>
     </row>
     <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="26">
+      <c r="A71" s="24">
         <v>61</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F71" s="18">
         <v>1</v>
       </c>
-      <c r="G71" s="36">
-        <v>10000</v>
+      <c r="G71" s="112">
+        <v>12000</v>
       </c>
       <c r="H71" s="20"/>
       <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="26">
+      <c r="A72" s="24">
         <v>62</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F72" s="18">
         <v>1</v>
       </c>
-      <c r="G72" s="36">
-        <v>10000</v>
+      <c r="G72" s="112">
+        <v>12000</v>
       </c>
       <c r="H72" s="20"/>
       <c r="I72" s="16"/>
     </row>
     <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="26">
+      <c r="A73" s="24">
         <v>63</v>
       </c>
-      <c r="B73" s="51" t="s">
-        <v>84</v>
+      <c r="B73" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F73" s="18">
         <v>1</v>
       </c>
-      <c r="G73" s="36">
-        <v>10000</v>
+      <c r="G73" s="112">
+        <v>12000</v>
       </c>
       <c r="H73" s="20"/>
       <c r="I73" s="16"/>
     </row>
     <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="26">
+      <c r="A74" s="24">
         <v>64</v>
       </c>
-      <c r="B74" s="74" t="s">
-        <v>116</v>
+      <c r="B74" s="69" t="s">
+        <v>110</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>135</v>
+        <v>30</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F74" s="18">
         <v>1</v>
       </c>
-      <c r="G74" s="36">
-        <v>20000</v>
+      <c r="G74" s="112">
+        <v>25000</v>
       </c>
       <c r="H74" s="20"/>
       <c r="I74" s="16"/>
     </row>
     <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="26">
+      <c r="A75" s="24">
         <v>65</v>
       </c>
-      <c r="B75" s="75" t="s">
-        <v>96</v>
+      <c r="B75" s="70" t="s">
+        <v>90</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F75" s="18">
         <v>1</v>
       </c>
-      <c r="G75" s="36">
-        <v>20000</v>
+      <c r="G75" s="112">
+        <v>25000</v>
       </c>
       <c r="H75" s="20"/>
       <c r="I75" s="16"/>
     </row>
     <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="26">
+      <c r="A76" s="24">
         <v>66</v>
       </c>
-      <c r="B76" s="75" t="s">
-        <v>97</v>
+      <c r="B76" s="70" t="s">
+        <v>91</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F76" s="18">
         <v>1</v>
       </c>
-      <c r="G76" s="36">
-        <v>20000</v>
+      <c r="G76" s="112">
+        <v>25000</v>
       </c>
       <c r="H76" s="20"/>
       <c r="I76" s="16"/>
     </row>
     <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="26">
+      <c r="A77" s="24">
         <v>67</v>
       </c>
-      <c r="B77" s="75" t="s">
-        <v>119</v>
+      <c r="B77" s="70" t="s">
+        <v>113</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="27" t="s">
-        <v>135</v>
+      <c r="E77" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F77" s="18">
         <v>1</v>
       </c>
-      <c r="G77" s="37"/>
+      <c r="G77" s="112"/>
       <c r="H77" s="20"/>
       <c r="I77" s="16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="26">
+      <c r="A78" s="24">
         <v>68</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D78" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F78" s="115">
-        <v>1</v>
-      </c>
-      <c r="G78" s="113">
-        <v>6000</v>
+        <v>168</v>
+      </c>
+      <c r="D78" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78" s="107">
+        <v>1</v>
+      </c>
+      <c r="G78" s="112">
+        <v>8000</v>
       </c>
       <c r="H78" s="20"/>
       <c r="I78" s="16"/>
     </row>
     <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="26">
+      <c r="A79" s="24">
         <v>69</v>
       </c>
-      <c r="B79" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" s="112"/>
-      <c r="E79" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F79" s="116"/>
-      <c r="G79" s="114"/>
+      <c r="B79" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="106"/>
+      <c r="E79" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" s="108"/>
+      <c r="G79" s="112">
+        <v>8000</v>
+      </c>
       <c r="H79" s="20"/>
       <c r="I79" s="16"/>
     </row>
     <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="26">
+      <c r="A80" s="24">
         <v>70</v>
       </c>
-      <c r="B80" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="D80" s="27" t="s">
+      <c r="B80" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E80" s="27" t="s">
-        <v>135</v>
+      <c r="E80" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F80" s="18">
         <v>1</v>
       </c>
-      <c r="G80" s="36">
-        <v>5000</v>
+      <c r="G80" s="112">
+        <v>6000</v>
       </c>
       <c r="H80" s="20"/>
       <c r="I80" s="16"/>
     </row>
     <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="26">
+      <c r="A81" s="24">
         <v>71</v>
       </c>
-      <c r="B81" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>135</v>
+      <c r="B81" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F81" s="18">
         <v>1</v>
       </c>
-      <c r="G81" s="36">
-        <v>5000</v>
+      <c r="G81" s="112">
+        <v>6000</v>
       </c>
       <c r="H81" s="20"/>
       <c r="I81" s="16"/>
     </row>
     <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="26">
+      <c r="A82" s="24">
         <v>72</v>
       </c>
-      <c r="B82" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82" s="27" t="s">
+      <c r="B82" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E82" s="27" t="s">
-        <v>135</v>
+      <c r="E82" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F82" s="18">
         <v>1</v>
       </c>
-      <c r="G82" s="36">
-        <v>80000</v>
+      <c r="G82" s="112">
+        <v>100000</v>
       </c>
       <c r="H82" s="20"/>
       <c r="I82" s="16"/>
     </row>
     <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="26">
+      <c r="A83" s="24">
         <v>73</v>
       </c>
-      <c r="B83" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="D83" s="27" t="s">
+      <c r="B83" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="27" t="s">
-        <v>135</v>
+      <c r="E83" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F83" s="18">
         <v>1</v>
       </c>
-      <c r="G83" s="36">
-        <v>7000</v>
+      <c r="G83" s="112">
+        <v>9000</v>
       </c>
       <c r="H83" s="20"/>
       <c r="I83" s="16"/>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="26">
+      <c r="A84" s="24">
         <v>74</v>
       </c>
-      <c r="B84" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="D84" s="27" t="s">
+      <c r="B84" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E84" s="27" t="s">
-        <v>135</v>
+      <c r="E84" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F84" s="18">
         <v>1</v>
       </c>
-      <c r="G84" s="36">
-        <v>15000</v>
+      <c r="G84" s="112">
+        <v>18000</v>
       </c>
       <c r="H84" s="20"/>
       <c r="I84" s="16"/>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="26">
+      <c r="A85" s="24">
         <v>75</v>
       </c>
-      <c r="B85" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="D85" s="27" t="s">
+      <c r="B85" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D85" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="27" t="s">
-        <v>135</v>
+      <c r="E85" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F85" s="18">
         <v>1</v>
       </c>
-      <c r="G85" s="36">
-        <v>7000</v>
+      <c r="G85" s="112">
+        <v>9000</v>
       </c>
       <c r="H85" s="20"/>
       <c r="I85" s="16"/>
     </row>
     <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="26">
+      <c r="A86" s="24">
         <v>76</v>
       </c>
-      <c r="B86" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="D86" s="27" t="s">
+      <c r="B86" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E86" s="27" t="s">
-        <v>135</v>
+      <c r="E86" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F86" s="18">
         <v>1</v>
       </c>
-      <c r="G86" s="36">
-        <v>15000</v>
+      <c r="G86" s="112">
+        <v>18000</v>
       </c>
       <c r="H86" s="20"/>
       <c r="I86" s="16"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="26">
+      <c r="A87" s="24">
         <v>77</v>
       </c>
-      <c r="B87" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="C87" s="38"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="27" t="s">
-        <v>135</v>
+      <c r="B87" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="34"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="F87" s="18">
         <v>1</v>
       </c>
-      <c r="G87" s="39"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="41"/>
+      <c r="G87" s="112"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="37"/>
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="26">
+      <c r="A88" s="24">
         <v>78</v>
       </c>
-      <c r="B88" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
+      <c r="B88" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
       <c r="E88" s="21"/>
-      <c r="F88" s="109"/>
-      <c r="G88" s="109"/>
-      <c r="H88" s="109"/>
-      <c r="I88" s="109"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="103"/>
+      <c r="H88" s="103"/>
+      <c r="I88" s="103"/>
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
-      <c r="B89" s="106"/>
-      <c r="C89" s="106"/>
-      <c r="D89" s="106"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="100"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="45"/>
       <c r="H89" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="I89" s="60"/>
+        <v>119</v>
+      </c>
+      <c r="I89" s="56"/>
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
-      <c r="B90" s="76" t="s">
+      <c r="B90" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
       <c r="E90" s="13"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
       <c r="H90" s="13"/>
-      <c r="I90" s="61"/>
+      <c r="I90" s="57"/>
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
-      <c r="B91" s="76"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
       <c r="E91" s="13"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
       <c r="H91" s="13"/>
-      <c r="I91" s="61"/>
+      <c r="I91" s="57"/>
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
       <c r="L91" s="11"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="62"/>
+      <c r="I92" s="58"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
-      <c r="B93" s="72"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
       <c r="H93" s="4"/>
-      <c r="I93" s="62"/>
+      <c r="I93" s="58"/>
     </row>
     <row r="94" spans="1:12" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
-      <c r="B94" s="105"/>
-      <c r="C94" s="105"/>
-      <c r="D94" s="105"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44"/>
+      <c r="B94" s="99"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
       <c r="H94" s="4"/>
-      <c r="I94" s="62"/>
+      <c r="I94" s="58"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
-      <c r="B95" s="77"/>
-      <c r="C95" s="46"/>
-      <c r="D95" s="46"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
       <c r="E95" s="10"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
       <c r="H95" s="10"/>
-      <c r="I95" s="63"/>
+      <c r="I95" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B7:I7"/>
@@ -4038,7 +4026,6 @@
     <mergeCell ref="F88:I88"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="D78:D79"/>
-    <mergeCell ref="G78:G79"/>
     <mergeCell ref="F78:F79"/>
     <mergeCell ref="A6:I6"/>
   </mergeCells>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\2. Báo cáo-Bàn giao\2. bộ phận bảo hành\Năm 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\2. Báo cáo-Bàn giao\2. bộ phận bảo hành\Năm 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1369,6 +1369,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1422,9 +1425,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1783,7 +1783,7 @@
   <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1830,11 +1830,11 @@
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="67"/>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
       <c r="F3" s="83"/>
       <c r="G3" s="84"/>
       <c r="H3" s="84"/>
@@ -1843,11 +1843,11 @@
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="67"/>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97"/>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
       <c r="H4" s="84"/>
@@ -1867,47 +1867,47 @@
       <c r="I5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="112"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="99"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="103"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="33"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
@@ -1962,7 +1962,7 @@
       <c r="F11" s="23">
         <v>1</v>
       </c>
-      <c r="G11" s="112">
+      <c r="G11" s="94">
         <v>12000</v>
       </c>
       <c r="H11" s="12"/>
@@ -1989,7 +1989,7 @@
       <c r="F12" s="30">
         <v>1</v>
       </c>
-      <c r="G12" s="112">
+      <c r="G12" s="94">
         <v>31000</v>
       </c>
       <c r="H12" s="19"/>
@@ -2016,7 +2016,7 @@
       <c r="F13" s="76">
         <v>1</v>
       </c>
-      <c r="G13" s="112">
+      <c r="G13" s="94">
         <v>31000</v>
       </c>
       <c r="H13" s="19"/>
@@ -2041,7 +2041,7 @@
       <c r="F14" s="23">
         <v>1</v>
       </c>
-      <c r="G14" s="112">
+      <c r="G14" s="94">
         <v>38000</v>
       </c>
       <c r="H14" s="19"/>
@@ -2068,7 +2068,7 @@
       <c r="F15" s="30">
         <v>1</v>
       </c>
-      <c r="G15" s="112">
+      <c r="G15" s="94">
         <v>375000</v>
       </c>
       <c r="H15" s="74">
@@ -2098,11 +2098,10 @@
       <c r="F16" s="23">
         <v>1</v>
       </c>
-      <c r="G16" s="112">
+      <c r="G16" s="94">
         <v>9000</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="55"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
@@ -2123,7 +2122,7 @@
       <c r="F17" s="30">
         <v>1</v>
       </c>
-      <c r="G17" s="112">
+      <c r="G17" s="94">
         <v>88000</v>
       </c>
       <c r="H17" s="20"/>
@@ -2148,7 +2147,7 @@
       <c r="F18" s="23">
         <v>1</v>
       </c>
-      <c r="G18" s="112">
+      <c r="G18" s="94">
         <v>63000</v>
       </c>
       <c r="H18" s="20"/>
@@ -2173,7 +2172,7 @@
       <c r="F19" s="23">
         <v>1</v>
       </c>
-      <c r="G19" s="112">
+      <c r="G19" s="94">
         <v>320000</v>
       </c>
       <c r="H19" s="20"/>
@@ -2198,7 +2197,7 @@
       <c r="F20" s="30">
         <v>1</v>
       </c>
-      <c r="G20" s="112">
+      <c r="G20" s="94">
         <v>450000</v>
       </c>
       <c r="H20" s="22">
@@ -2228,7 +2227,7 @@
       <c r="F21" s="23">
         <v>1</v>
       </c>
-      <c r="G21" s="112">
+      <c r="G21" s="94">
         <v>275000</v>
       </c>
       <c r="H21" s="22">
@@ -2258,7 +2257,7 @@
       <c r="F22" s="30">
         <v>1</v>
       </c>
-      <c r="G22" s="112">
+      <c r="G22" s="94">
         <v>385000</v>
       </c>
       <c r="H22" s="22">
@@ -2288,7 +2287,7 @@
       <c r="F23" s="23">
         <v>1</v>
       </c>
-      <c r="G23" s="112">
+      <c r="G23" s="94">
         <v>385000</v>
       </c>
       <c r="H23" s="22">
@@ -2318,7 +2317,7 @@
       <c r="F24" s="30">
         <v>1</v>
       </c>
-      <c r="G24" s="112">
+      <c r="G24" s="94">
         <v>240000</v>
       </c>
       <c r="H24" s="22"/>
@@ -2343,7 +2342,7 @@
       <c r="F25" s="30">
         <v>1</v>
       </c>
-      <c r="G25" s="112">
+      <c r="G25" s="94">
         <v>240000</v>
       </c>
       <c r="H25" s="22">
@@ -2373,7 +2372,7 @@
       <c r="F26" s="23">
         <v>1</v>
       </c>
-      <c r="G26" s="112">
+      <c r="G26" s="94">
         <v>240000</v>
       </c>
       <c r="H26" s="22">
@@ -2403,7 +2402,7 @@
       <c r="F27" s="30">
         <v>1</v>
       </c>
-      <c r="G27" s="112">
+      <c r="G27" s="94">
         <v>240000</v>
       </c>
       <c r="H27" s="20"/>
@@ -2428,7 +2427,7 @@
       <c r="F28" s="23">
         <v>1</v>
       </c>
-      <c r="G28" s="112">
+      <c r="G28" s="94">
         <v>38000</v>
       </c>
       <c r="H28" s="20"/>
@@ -2453,7 +2452,7 @@
       <c r="F29" s="30">
         <v>1</v>
       </c>
-      <c r="G29" s="112">
+      <c r="G29" s="94">
         <v>38000</v>
       </c>
       <c r="H29" s="20"/>
@@ -2478,7 +2477,7 @@
       <c r="F30" s="23">
         <v>1</v>
       </c>
-      <c r="G30" s="112">
+      <c r="G30" s="94">
         <v>38000</v>
       </c>
       <c r="H30" s="20"/>
@@ -2503,7 +2502,7 @@
       <c r="F31" s="30">
         <v>1</v>
       </c>
-      <c r="G31" s="112">
+      <c r="G31" s="94">
         <v>12000</v>
       </c>
       <c r="H31" s="20"/>
@@ -2528,7 +2527,7 @@
       <c r="F32" s="23">
         <v>1</v>
       </c>
-      <c r="G32" s="112">
+      <c r="G32" s="94">
         <v>138000</v>
       </c>
       <c r="H32" s="20"/>
@@ -2553,7 +2552,7 @@
       <c r="F33" s="23">
         <v>1</v>
       </c>
-      <c r="G33" s="112">
+      <c r="G33" s="94">
         <v>138000</v>
       </c>
       <c r="H33" s="20"/>
@@ -2578,7 +2577,7 @@
       <c r="F34" s="30">
         <v>1</v>
       </c>
-      <c r="G34" s="112">
+      <c r="G34" s="94">
         <v>138000</v>
       </c>
       <c r="H34" s="20"/>
@@ -2603,7 +2602,7 @@
       <c r="F35" s="23">
         <v>1</v>
       </c>
-      <c r="G35" s="112">
+      <c r="G35" s="94">
         <v>150000</v>
       </c>
       <c r="H35" s="20"/>
@@ -2628,7 +2627,7 @@
       <c r="F36" s="30">
         <v>1</v>
       </c>
-      <c r="G36" s="112">
+      <c r="G36" s="94">
         <v>150000</v>
       </c>
       <c r="H36" s="20"/>
@@ -2653,7 +2652,7 @@
       <c r="F37" s="23">
         <v>1</v>
       </c>
-      <c r="G37" s="112">
+      <c r="G37" s="94">
         <v>50000</v>
       </c>
       <c r="H37" s="20"/>
@@ -2678,7 +2677,7 @@
       <c r="F38" s="30">
         <v>1</v>
       </c>
-      <c r="G38" s="112">
+      <c r="G38" s="94">
         <v>38000</v>
       </c>
       <c r="H38" s="20"/>
@@ -2703,7 +2702,7 @@
       <c r="F39" s="23">
         <v>1</v>
       </c>
-      <c r="G39" s="112">
+      <c r="G39" s="94">
         <v>6000</v>
       </c>
       <c r="H39" s="20"/>
@@ -2728,7 +2727,7 @@
       <c r="F40" s="30">
         <v>1</v>
       </c>
-      <c r="G40" s="112">
+      <c r="G40" s="94">
         <v>6000</v>
       </c>
       <c r="H40" s="20"/>
@@ -2753,7 +2752,7 @@
       <c r="F41" s="23">
         <v>1</v>
       </c>
-      <c r="G41" s="112">
+      <c r="G41" s="94">
         <v>6000</v>
       </c>
       <c r="H41" s="20"/>
@@ -2778,7 +2777,7 @@
       <c r="F42" s="30">
         <v>1</v>
       </c>
-      <c r="G42" s="112">
+      <c r="G42" s="94">
         <v>6000</v>
       </c>
       <c r="H42" s="20"/>
@@ -2803,7 +2802,7 @@
       <c r="F43" s="23">
         <v>1</v>
       </c>
-      <c r="G43" s="112">
+      <c r="G43" s="94">
         <v>12000</v>
       </c>
       <c r="H43" s="20"/>
@@ -2828,7 +2827,7 @@
       <c r="F44" s="30">
         <v>1</v>
       </c>
-      <c r="G44" s="112">
+      <c r="G44" s="94">
         <v>12000</v>
       </c>
       <c r="H44" s="20"/>
@@ -2853,7 +2852,7 @@
       <c r="F45" s="23">
         <v>1</v>
       </c>
-      <c r="G45" s="112">
+      <c r="G45" s="94">
         <v>6000</v>
       </c>
       <c r="H45" s="20"/>
@@ -2878,7 +2877,7 @@
       <c r="F46" s="30">
         <v>1</v>
       </c>
-      <c r="G46" s="112">
+      <c r="G46" s="94">
         <v>32000</v>
       </c>
       <c r="H46" s="20"/>
@@ -2903,7 +2902,7 @@
       <c r="F47" s="23">
         <v>1</v>
       </c>
-      <c r="G47" s="112">
+      <c r="G47" s="94">
         <v>32000</v>
       </c>
       <c r="H47" s="20"/>
@@ -2928,7 +2927,7 @@
       <c r="F48" s="30">
         <v>1</v>
       </c>
-      <c r="G48" s="112">
+      <c r="G48" s="94">
         <v>32000</v>
       </c>
       <c r="H48" s="20"/>
@@ -2953,7 +2952,7 @@
       <c r="F49" s="23">
         <v>1</v>
       </c>
-      <c r="G49" s="112">
+      <c r="G49" s="94">
         <v>32000</v>
       </c>
       <c r="H49" s="20"/>
@@ -2978,7 +2977,7 @@
       <c r="F50" s="30">
         <v>1</v>
       </c>
-      <c r="G50" s="112">
+      <c r="G50" s="94">
         <v>12000</v>
       </c>
       <c r="H50" s="20"/>
@@ -3003,7 +3002,7 @@
       <c r="F51" s="23">
         <v>1</v>
       </c>
-      <c r="G51" s="112">
+      <c r="G51" s="94">
         <v>12000</v>
       </c>
       <c r="H51" s="20"/>
@@ -3028,7 +3027,7 @@
       <c r="F52" s="30">
         <v>1</v>
       </c>
-      <c r="G52" s="112">
+      <c r="G52" s="94">
         <v>6000</v>
       </c>
       <c r="H52" s="20"/>
@@ -3053,7 +3052,7 @@
       <c r="F53" s="23">
         <v>1</v>
       </c>
-      <c r="G53" s="112">
+      <c r="G53" s="94">
         <v>6000</v>
       </c>
       <c r="H53" s="20"/>
@@ -3078,7 +3077,7 @@
       <c r="F54" s="30">
         <v>1</v>
       </c>
-      <c r="G54" s="112">
+      <c r="G54" s="94">
         <v>6000</v>
       </c>
       <c r="H54" s="20"/>
@@ -3103,7 +3102,7 @@
       <c r="F55" s="23">
         <v>1</v>
       </c>
-      <c r="G55" s="112">
+      <c r="G55" s="94">
         <v>6000</v>
       </c>
       <c r="H55" s="20"/>
@@ -3128,7 +3127,7 @@
       <c r="F56" s="30">
         <v>1</v>
       </c>
-      <c r="G56" s="112">
+      <c r="G56" s="94">
         <v>6000</v>
       </c>
       <c r="H56" s="20"/>
@@ -3153,7 +3152,7 @@
       <c r="F57" s="23">
         <v>1</v>
       </c>
-      <c r="G57" s="112">
+      <c r="G57" s="94">
         <v>32000</v>
       </c>
       <c r="H57" s="20"/>
@@ -3178,7 +3177,7 @@
       <c r="F58" s="30">
         <v>1</v>
       </c>
-      <c r="G58" s="112">
+      <c r="G58" s="94">
         <v>32000</v>
       </c>
       <c r="H58" s="20"/>
@@ -3203,7 +3202,7 @@
       <c r="F59" s="23">
         <v>1</v>
       </c>
-      <c r="G59" s="112">
+      <c r="G59" s="94">
         <v>32000</v>
       </c>
       <c r="H59" s="20"/>
@@ -3228,7 +3227,7 @@
       <c r="F60" s="30">
         <v>1</v>
       </c>
-      <c r="G60" s="112">
+      <c r="G60" s="94">
         <v>38000</v>
       </c>
       <c r="H60" s="20"/>
@@ -3253,7 +3252,7 @@
       <c r="F61" s="23">
         <v>1</v>
       </c>
-      <c r="G61" s="112">
+      <c r="G61" s="94">
         <v>38000</v>
       </c>
       <c r="H61" s="20"/>
@@ -3278,7 +3277,7 @@
       <c r="F62" s="18">
         <v>1</v>
       </c>
-      <c r="G62" s="112">
+      <c r="G62" s="94">
         <v>25000</v>
       </c>
       <c r="H62" s="20"/>
@@ -3303,7 +3302,7 @@
       <c r="F63" s="18">
         <v>1</v>
       </c>
-      <c r="G63" s="112">
+      <c r="G63" s="94">
         <v>63000</v>
       </c>
       <c r="H63" s="20"/>
@@ -3328,7 +3327,7 @@
       <c r="F64" s="18">
         <v>1</v>
       </c>
-      <c r="G64" s="112">
+      <c r="G64" s="94">
         <v>44000</v>
       </c>
       <c r="H64" s="20"/>
@@ -3355,7 +3354,7 @@
       <c r="F65" s="18">
         <v>1</v>
       </c>
-      <c r="G65" s="112">
+      <c r="G65" s="94">
         <v>44000</v>
       </c>
       <c r="H65" s="20"/>
@@ -3382,7 +3381,7 @@
       <c r="F66" s="18">
         <v>1</v>
       </c>
-      <c r="G66" s="112">
+      <c r="G66" s="94">
         <v>38000</v>
       </c>
       <c r="H66" s="20"/>
@@ -3409,7 +3408,7 @@
       <c r="F67" s="18">
         <v>1</v>
       </c>
-      <c r="G67" s="112">
+      <c r="G67" s="94">
         <v>44000</v>
       </c>
       <c r="H67" s="20"/>
@@ -3434,7 +3433,7 @@
       <c r="F68" s="18">
         <v>1</v>
       </c>
-      <c r="G68" s="112">
+      <c r="G68" s="94">
         <v>25000</v>
       </c>
       <c r="H68" s="20"/>
@@ -3459,7 +3458,7 @@
       <c r="F69" s="18">
         <v>1</v>
       </c>
-      <c r="G69" s="112">
+      <c r="G69" s="94">
         <v>12000</v>
       </c>
       <c r="H69" s="20"/>
@@ -3484,7 +3483,7 @@
       <c r="F70" s="18">
         <v>1</v>
       </c>
-      <c r="G70" s="112">
+      <c r="G70" s="94">
         <v>12000</v>
       </c>
       <c r="H70" s="20"/>
@@ -3509,7 +3508,7 @@
       <c r="F71" s="18">
         <v>1</v>
       </c>
-      <c r="G71" s="112">
+      <c r="G71" s="94">
         <v>12000</v>
       </c>
       <c r="H71" s="20"/>
@@ -3534,7 +3533,7 @@
       <c r="F72" s="18">
         <v>1</v>
       </c>
-      <c r="G72" s="112">
+      <c r="G72" s="94">
         <v>12000</v>
       </c>
       <c r="H72" s="20"/>
@@ -3559,7 +3558,7 @@
       <c r="F73" s="18">
         <v>1</v>
       </c>
-      <c r="G73" s="112">
+      <c r="G73" s="94">
         <v>12000</v>
       </c>
       <c r="H73" s="20"/>
@@ -3584,7 +3583,7 @@
       <c r="F74" s="18">
         <v>1</v>
       </c>
-      <c r="G74" s="112">
+      <c r="G74" s="94">
         <v>25000</v>
       </c>
       <c r="H74" s="20"/>
@@ -3609,7 +3608,7 @@
       <c r="F75" s="18">
         <v>1</v>
       </c>
-      <c r="G75" s="112">
+      <c r="G75" s="94">
         <v>25000</v>
       </c>
       <c r="H75" s="20"/>
@@ -3634,7 +3633,7 @@
       <c r="F76" s="18">
         <v>1</v>
       </c>
-      <c r="G76" s="112">
+      <c r="G76" s="94">
         <v>25000</v>
       </c>
       <c r="H76" s="20"/>
@@ -3659,7 +3658,7 @@
       <c r="F77" s="18">
         <v>1</v>
       </c>
-      <c r="G77" s="112"/>
+      <c r="G77" s="94"/>
       <c r="H77" s="20"/>
       <c r="I77" s="16" t="s">
         <v>114</v>
@@ -3675,16 +3674,16 @@
       <c r="C78" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D78" s="105" t="s">
+      <c r="D78" s="106" t="s">
         <v>80</v>
       </c>
       <c r="E78" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="F78" s="107">
-        <v>1</v>
-      </c>
-      <c r="G78" s="112">
+      <c r="F78" s="108">
+        <v>1</v>
+      </c>
+      <c r="G78" s="94">
         <v>8000</v>
       </c>
       <c r="H78" s="20"/>
@@ -3700,12 +3699,12 @@
       <c r="C79" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="D79" s="106"/>
+      <c r="D79" s="107"/>
       <c r="E79" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="F79" s="108"/>
-      <c r="G79" s="112">
+      <c r="F79" s="109"/>
+      <c r="G79" s="94">
         <v>8000</v>
       </c>
       <c r="H79" s="20"/>
@@ -3730,7 +3729,7 @@
       <c r="F80" s="18">
         <v>1</v>
       </c>
-      <c r="G80" s="112">
+      <c r="G80" s="94">
         <v>6000</v>
       </c>
       <c r="H80" s="20"/>
@@ -3755,7 +3754,7 @@
       <c r="F81" s="18">
         <v>1</v>
       </c>
-      <c r="G81" s="112">
+      <c r="G81" s="94">
         <v>6000</v>
       </c>
       <c r="H81" s="20"/>
@@ -3780,7 +3779,7 @@
       <c r="F82" s="18">
         <v>1</v>
       </c>
-      <c r="G82" s="112">
+      <c r="G82" s="94">
         <v>100000</v>
       </c>
       <c r="H82" s="20"/>
@@ -3805,7 +3804,7 @@
       <c r="F83" s="18">
         <v>1</v>
       </c>
-      <c r="G83" s="112">
+      <c r="G83" s="94">
         <v>9000</v>
       </c>
       <c r="H83" s="20"/>
@@ -3830,7 +3829,7 @@
       <c r="F84" s="18">
         <v>1</v>
       </c>
-      <c r="G84" s="112">
+      <c r="G84" s="94">
         <v>18000</v>
       </c>
       <c r="H84" s="20"/>
@@ -3855,7 +3854,7 @@
       <c r="F85" s="18">
         <v>1</v>
       </c>
-      <c r="G85" s="112">
+      <c r="G85" s="94">
         <v>9000</v>
       </c>
       <c r="H85" s="20"/>
@@ -3880,7 +3879,7 @@
       <c r="F86" s="18">
         <v>1</v>
       </c>
-      <c r="G86" s="112">
+      <c r="G86" s="94">
         <v>18000</v>
       </c>
       <c r="H86" s="20"/>
@@ -3901,7 +3900,7 @@
       <c r="F87" s="18">
         <v>1</v>
       </c>
-      <c r="G87" s="112"/>
+      <c r="G87" s="94"/>
       <c r="H87" s="36"/>
       <c r="I87" s="37"/>
       <c r="J87" s="11"/>
@@ -3917,19 +3916,19 @@
       <c r="C88" s="35"/>
       <c r="D88" s="35"/>
       <c r="E88" s="21"/>
-      <c r="F88" s="103"/>
-      <c r="G88" s="103"/>
-      <c r="H88" s="103"/>
-      <c r="I88" s="103"/>
+      <c r="F88" s="104"/>
+      <c r="G88" s="104"/>
+      <c r="H88" s="104"/>
+      <c r="I88" s="104"/>
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
-      <c r="B89" s="100"/>
-      <c r="C89" s="100"/>
-      <c r="D89" s="100"/>
+      <c r="B89" s="101"/>
+      <c r="C89" s="101"/>
+      <c r="D89" s="101"/>
       <c r="E89" s="32"/>
       <c r="F89" s="45"/>
       <c r="G89" s="45"/>
@@ -3995,9 +3994,9 @@
     </row>
     <row r="94" spans="1:12" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
-      <c r="B94" s="99"/>
-      <c r="C94" s="99"/>
-      <c r="D94" s="99"/>
+      <c r="B94" s="100"/>
+      <c r="C94" s="100"/>
+      <c r="D94" s="100"/>
       <c r="E94" s="31"/>
       <c r="F94" s="40"/>
       <c r="G94" s="40"/>

--- a/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
+++ b/2. Báo cáo-Bàn giao/2. bộ phận bảo hành/Năm 2020/Báo giá linh kiện BH.xlsx
@@ -1782,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
